--- a/docs/CareConnect-Slot-1.xlsx
+++ b/docs/CareConnect-Slot-1.xlsx
@@ -216,8 +216,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
